--- a/PatientList.xlsx
+++ b/PatientList.xlsx
@@ -5,37 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\OneDrive\שולחן העבודה\xlsx file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E170415-606F-464A-919A-840CD9D2ADB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06DA05-0A9D-45F8-B8FA-9E97B8748078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25388" yWindow="-600" windowWidth="16200" windowHeight="9848" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="0" yWindow="-263" windowWidth="16200" windowHeight="9848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>firstname</t>
   </si>
@@ -59,7 +44,54 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +104,175 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
@@ -95,16 +296,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,68 +642,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.73046875" customWidth="1"/>
+    <col min="2" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1">
         <v>207527979</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="4">
         <v>23</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="5">
         <v>70</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="6">
         <v>176</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8">
         <v>12213</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="11">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="12">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="15">
+        <v>207527979</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
+        <v>23</v>
+      </c>
+      <c r="E3" s="19">
+        <v>70</v>
+      </c>
+      <c r="F3" s="20">
+        <v>176</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="22">
+        <v>12213</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25">
+        <v>12</v>
+      </c>
+      <c r="E4" s="26">
+        <v>34</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" xr:uid="{48792CEF-C67F-4AAD-8A32-BB43050F1A06}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PatientList.xlsx
+++ b/PatientList.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\Medical-Diagnosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2925F5FA-70FE-4A7C-9EF4-ECC8AEB18ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1AFE3C-3B4A-4E9B-9E3A-95D50A88BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33818" yWindow="68" windowWidth="16200" windowHeight="9847" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="-24684" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>firstname</t>
   </si>
@@ -46,25 +46,50 @@
     <t>asd</t>
   </si>
   <si>
-    <t>sdaf</t>
-  </si>
-  <si>
-    <t>dasf</t>
-  </si>
-  <si>
     <t>Blood Type</t>
   </si>
   <si>
     <t>dsf</t>
   </si>
   <si>
-    <t>ewr</t>
+    <t>fadi</t>
+  </si>
+  <si>
+    <t>badarni</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>ahmad</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>abed</t>
+  </si>
+  <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,19 +448,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.77734375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>207527979</v>
       </c>
@@ -458,10 +484,13 @@
         <v>586535522</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12213</v>
       </c>
@@ -484,59 +513,97 @@
         <v>12431</v>
       </c>
       <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>209315647</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>82</v>
+      </c>
+      <c r="F3">
+        <v>184</v>
+      </c>
+      <c r="G3">
+        <v>524183083</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>12213</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>123456789</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>180</v>
+      </c>
+      <c r="G4">
+        <v>15241830</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.23435234E8</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>34</v>
-      </c>
-      <c r="F3">
-        <v>324</v>
-      </c>
-      <c r="G3">
-        <v>324</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1324</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>231</v>
-      </c>
-      <c r="E4">
-        <v>324</v>
-      </c>
-      <c r="F4">
-        <v>324</v>
-      </c>
-      <c r="G4">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.24111123E8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PatientList.xlsx
+++ b/PatientList.xlsx
@@ -3,21 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\Medical-Diagnosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1AFE3C-3B4A-4E9B-9E3A-95D50A88BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4509A950-CF1D-4B2E-9B83-074A89EEA492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24684" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="ID">Sheet1!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>firstname</t>
   </si>
@@ -43,15 +46,9 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
     <t>Blood Type</t>
   </si>
   <si>
-    <t>dsf</t>
-  </si>
-  <si>
     <t>fadi</t>
   </si>
   <si>
@@ -61,18 +58,9 @@
     <t>O+</t>
   </si>
   <si>
-    <t>ahmad</t>
-  </si>
-  <si>
-    <t>sh</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
     <t>abed</t>
   </si>
   <si>
@@ -83,13 +71,24 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>abedalla</t>
+  </si>
+  <si>
+    <t>shiekh</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,22 +447,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.77734375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>207527979</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -472,48 +471,48 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
-        <v>586535522</v>
+        <v>111111111</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>12213</v>
+        <v>209315647</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="G2">
-        <v>12431</v>
+        <v>524183083</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -521,89 +520,60 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>209315647</v>
+        <v>207527979</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+      <c r="G3">
+        <v>15241830</v>
+      </c>
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>82</v>
-      </c>
-      <c r="F3">
-        <v>184</v>
-      </c>
-      <c r="G3">
-        <v>524183083</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>123456789</v>
+        <v>123435234</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>176</v>
+      </c>
+      <c r="G4">
+        <v>524111123</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>80</v>
-      </c>
-      <c r="F4">
-        <v>180</v>
-      </c>
-      <c r="G4">
-        <v>15241830</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.23435234E8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>176.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.24111123E8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PatientList.xlsx
+++ b/PatientList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\Medical-Diagnosis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis-fadi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4509A950-CF1D-4B2E-9B83-074A89EEA492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6B932-73F8-4498-91F5-5CB01DB07955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="21503" yWindow="-2858" windowWidth="28994" windowHeight="16396" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>firstname</t>
   </si>
@@ -83,13 +83,40 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>wight</t>
+  </si>
+  <si>
+    <t>Hight</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>fdsgsg</t>
+  </si>
+  <si>
+    <t>dfsg</t>
+  </si>
+  <si>
+    <t>is east</t>
+  </si>
+  <si>
+    <t>is ethiopian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +129,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
@@ -129,9 +163,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,22 +482,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -470,17 +505,17 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>111111111</v>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -488,8 +523,14 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>209315647</v>
       </c>
@@ -517,8 +558,14 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>207527979</v>
       </c>
@@ -546,8 +593,14 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>123435234</v>
       </c>
@@ -574,6 +627,47 @@
       </c>
       <c r="I4" t="s">
         <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>123456789</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1234567890</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PatientList.xlsx
+++ b/PatientList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis-fadi\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>firstname</t>
   </si>
@@ -110,12 +110,25 @@
   </si>
   <si>
     <t>is ethiopian</t>
+  </si>
+  <si>
+    <t>דגכע</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -490,9 +503,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="7" max="7" customWidth="true" width="16.19921875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -668,6 +681,41 @@
       </c>
       <c r="K5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.23123123E8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.231231231E9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/PatientList.xlsx
+++ b/PatientList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis-fadi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6B932-73F8-4498-91F5-5CB01DB07955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B488F2-648B-434B-87FF-166DF1FF0257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21503" yWindow="-2858" windowWidth="28994" windowHeight="16396" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9847" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>firstname</t>
   </si>
@@ -49,79 +49,64 @@
     <t>Blood Type</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>wight</t>
+  </si>
+  <si>
+    <t>Hight</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>is east</t>
+  </si>
+  <si>
+    <t>is ethiopian</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>fadi</t>
   </si>
   <si>
-    <t>badarni</t>
-  </si>
-  <si>
-    <t>O+</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>abed</t>
-  </si>
-  <si>
-    <t>ak</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>abedalla</t>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>abdalla</t>
   </si>
   <si>
     <t>shiekh</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>wight</t>
-  </si>
-  <si>
-    <t>Hight</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>fdsgsg</t>
-  </si>
-  <si>
-    <t>dfsg</t>
-  </si>
-  <si>
-    <t>is east</t>
-  </si>
-  <si>
-    <t>is ethiopian</t>
-  </si>
-  <si>
-    <t>דגכע</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -176,10 +161,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -510,7 +494,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -519,203 +503,133 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.07527979E8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.86535522E8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.23321123E8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.48277267E8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.9029029E8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.24183087E8</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>209315647</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>82</v>
-      </c>
-      <c r="F2">
-        <v>184</v>
-      </c>
-      <c r="G2">
-        <v>524183083</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>207527979</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>80</v>
-      </c>
-      <c r="F3">
-        <v>180</v>
-      </c>
-      <c r="G3">
-        <v>15241830</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>123435234</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-      <c r="F4">
-        <v>176</v>
-      </c>
-      <c r="G4">
-        <v>524111123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>123456789</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>1234567890</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1.23123123E8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>231.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.231231231E9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PatientList.xlsx
+++ b/PatientList.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B488F2-648B-434B-87FF-166DF1FF0257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8CACF7-02C5-48E0-89B7-1C014689F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9847" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="5400" yWindow="1553" windowWidth="16200" windowHeight="9847" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>firstname</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>Male</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>fadi</t>
@@ -113,7 +107,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,14 +475,14 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="7" max="7" customWidth="true" width="16.19921875"/>
+    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -527,9 +520,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2.07527979E8</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>207527979</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -537,17 +530,17 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>176.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.86535522E8</v>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>176</v>
+      </c>
+      <c r="G2">
+        <v>586535522</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -555,81 +548,81 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>123321123</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.23321123E8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+      <c r="G3">
+        <v>548277267</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.48277267E8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.9029029E8</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>290290290</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>180</v>
+      </c>
+      <c r="G4">
+        <v>524183087</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.24183087E8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PatientList.xlsx
+++ b/PatientList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis_1\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>firstname</t>
   </si>
@@ -101,12 +101,28 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>abed</t>
+  </si>
+  <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>O-</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>mohammad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
@@ -480,9 +496,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="7" max="7" customWidth="true" width="16.19921875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -623,6 +639,76 @@
       </c>
       <c r="K4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.23345234E8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.25314444E8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.23234237E8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.24183083E8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/PatientList.xlsx
+++ b/PatientList.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8CACF7-02C5-48E0-89B7-1C014689F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25710A75-2C28-41F1-A84C-2393EB221371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1553" windowWidth="16200" windowHeight="9847" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="2003" yWindow="3443" windowWidth="16200" windowHeight="10057" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>firstname</t>
   </si>
@@ -46,9 +46,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>Blood Type</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>sk</t>
   </si>
   <si>
-    <t>O+</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -91,25 +85,16 @@
     <t>bd</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
     <t>abdalla</t>
   </si>
   <si>
     <t>shiekh</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>abed</t>
   </si>
   <si>
     <t>ak</t>
-  </si>
-  <si>
-    <t>O-</t>
   </si>
   <si>
     <t>Female</t>
@@ -122,7 +107,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,22 +472,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A8" activeCellId="1" sqref="A7:XFD7 A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="7" max="7" customWidth="true" width="16.19921875"/>
+    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -512,39 +496,36 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>207527979</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2">
         <v>23</v>
@@ -559,27 +540,24 @@
         <v>586535522</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>123321123</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>23</v>
@@ -594,27 +572,24 @@
         <v>548277267</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>290290290</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>23</v>
@@ -629,86 +604,77 @@
         <v>524183087</v>
       </c>
       <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>123345234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>148</v>
+      </c>
+      <c r="G5">
+        <v>525314444</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>123234237</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>180</v>
+      </c>
+      <c r="G6">
+        <v>524183083</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.23345234E8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>348.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.25314444E8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1.23234237E8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.24183083E8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>
